--- a/Aufgaben/bugfix/bugfix/img/possible bugs.xlsx
+++ b/Aufgaben/bugfix/bugfix/img/possible bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://swbgruppe-my.sharepoint.com/personal/lunanoxfea_bruentrup_swb-gruppe_de/Documents/Documents/bootcamp/Aufgaben/bugfix/bugfix/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{00C2012A-A05E-4936-9D74-8128C5663A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE11B4E-41BD-4F5E-962F-BB38A5E58992}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{00C2012A-A05E-4936-9D74-8128C5663A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A9AD45-31AE-4B79-BF77-305F06FC5110}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{018438C0-E344-4478-AB4C-557BE73AEEA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{018438C0-E344-4478-AB4C-557BE73AEEA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>possible bugs</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>water walking</t>
+  </si>
+  <si>
+    <t>genAI went rouge</t>
+  </si>
+  <si>
+    <t>falling through the ground</t>
+  </si>
+  <si>
+    <t>clipping</t>
   </si>
 </sst>
 </file>
@@ -156,6 +165,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,21 +490,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB45A4A-5C18-4132-A877-17F0A1D908BC}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -540,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -587,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -644,7 +657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -661,6 +674,9 @@
         <f>SUM(B6:D6)</f>
         <v>1</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
@@ -697,14 +713,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
@@ -734,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="H8" s="1">
         <v>1</v>
       </c>
@@ -762,14 +780,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
@@ -799,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N10" s="1">
         <v>2</v>
       </c>
@@ -814,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -842,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N12" s="1">
         <v>0</v>
       </c>
@@ -857,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -885,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -910,18 +930,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="V18" s="1">
         <f>0.75*20</f>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -974,7 +994,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -1018,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>0</v>
@@ -1064,7 +1084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -1105,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1142,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="H24" s="1">
         <v>1</v>
       </c>
@@ -1170,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1207,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="N26" s="1">
         <v>2</v>
       </c>
@@ -1222,7 +1242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1250,7 +1270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="N28" s="1">
         <v>0</v>
       </c>
@@ -1265,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1293,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
